--- a/REGULAR/MAYORS OFFICE/DEL MUNDO, ROSALLE A..xlsx
+++ b/REGULAR/MAYORS OFFICE/DEL MUNDO, ROSALLE A..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="487">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1489,6 +1489,12 @@
   </si>
   <si>
     <t>UT(0-2-5)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/21,22,27,28,29/2023</t>
   </si>
 </sst>
 </file>
@@ -2389,7 +2395,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2438,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2502,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,7 +2562,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2622,7 +2628,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,7 +2691,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2783,7 +2789,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2842,7 +2848,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2907,7 +2913,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2950,7 +2956,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3025,7 +3031,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3211,7 +3217,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3277,7 +3283,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3335,7 +3341,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3401,7 +3407,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3457,7 +3463,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3532,7 +3538,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3575,7 +3581,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3641,7 +3647,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3697,7 +3703,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3795,7 +3801,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3858,7 +3864,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3924,8 +3930,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K736" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K736"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K738" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K738"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4303,12 +4309,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K736"/>
+  <dimension ref="A2:K738"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3450" topLeftCell="A679" activePane="bottomLeft"/>
+      <pane ySplit="3450" topLeftCell="A706" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="F696" sqref="F696"/>
+      <selection pane="bottomLeft" activeCell="K724" sqref="K724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4473,7 +4479,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>73.575999999999993</v>
+        <v>72.325999999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4483,7 +4489,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>81.082999999999998</v>
+        <v>84.832999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -19665,13 +19671,15 @@
       <c r="B712" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C712" s="13"/>
+      <c r="C712" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D712" s="39"/>
       <c r="E712" s="9"/>
       <c r="F712" s="20"/>
-      <c r="G712" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G712" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H712" s="39"/>
       <c r="I712" s="9"/>
@@ -19704,25 +19712,31 @@
       <c r="A714" s="40">
         <v>45200</v>
       </c>
-      <c r="B714" s="20"/>
-      <c r="C714" s="13"/>
+      <c r="B714" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C714" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D714" s="39"/>
       <c r="E714" s="9"/>
       <c r="F714" s="20"/>
-      <c r="G714" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G714" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H714" s="39"/>
       <c r="I714" s="9"/>
       <c r="J714" s="11"/>
-      <c r="K714" s="20"/>
+      <c r="K714" s="50">
+        <v>45201</v>
+      </c>
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A715" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B715" s="20"/>
+      <c r="A715" s="40"/>
+      <c r="B715" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C715" s="13"/>
       <c r="D715" s="39"/>
       <c r="E715" s="9"/>
@@ -19734,29 +19748,39 @@
       <c r="H715" s="39"/>
       <c r="I715" s="9"/>
       <c r="J715" s="11"/>
-      <c r="K715" s="20"/>
+      <c r="K715" s="50">
+        <v>45225</v>
+      </c>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B716" s="20"/>
-      <c r="C716" s="13"/>
-      <c r="D716" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B716" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C716" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D716" s="39">
+        <v>5</v>
+      </c>
       <c r="E716" s="9"/>
       <c r="F716" s="20"/>
-      <c r="G716" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G716" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H716" s="39"/>
       <c r="I716" s="9"/>
       <c r="J716" s="11"/>
-      <c r="K716" s="20"/>
+      <c r="K716" s="20" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -19773,8 +19797,8 @@
       <c r="K717" s="20"/>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A718" s="40">
-        <v>45323</v>
+      <c r="A718" s="48" t="s">
+        <v>485</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -19792,7 +19816,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -19810,7 +19834,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -19828,7 +19852,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19846,7 +19870,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19864,7 +19888,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19882,7 +19906,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19900,7 +19924,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19918,7 +19942,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19936,7 +19960,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19954,7 +19978,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19972,7 +19996,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19990,7 +20014,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -20008,7 +20032,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -20026,7 +20050,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -20044,7 +20068,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -20062,7 +20086,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -20080,7 +20104,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -20098,7 +20122,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -20113,6 +20137,42 @@
       <c r="I736" s="9"/>
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
+    </row>
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A737" s="40">
+        <v>45839</v>
+      </c>
+      <c r="B737" s="20"/>
+      <c r="C737" s="13"/>
+      <c r="D737" s="39"/>
+      <c r="E737" s="9"/>
+      <c r="F737" s="20"/>
+      <c r="G737" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H737" s="39"/>
+      <c r="I737" s="9"/>
+      <c r="J737" s="11"/>
+      <c r="K737" s="20"/>
+    </row>
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A738" s="40">
+        <v>45870</v>
+      </c>
+      <c r="B738" s="20"/>
+      <c r="C738" s="13"/>
+      <c r="D738" s="39"/>
+      <c r="E738" s="9"/>
+      <c r="F738" s="20"/>
+      <c r="G738" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H738" s="39"/>
+      <c r="I738" s="9"/>
+      <c r="J738" s="11"/>
+      <c r="K738" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
